--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value701.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value701.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1354155593932821</v>
+        <v>1.015390396118164</v>
       </c>
       <c r="B1">
-        <v>0.09252383253477067</v>
+        <v>1.368349313735962</v>
       </c>
       <c r="C1">
-        <v>0.07399453273709725</v>
+        <v>2.273638963699341</v>
       </c>
       <c r="D1">
-        <v>0.07328846697530851</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.08094342323733685</v>
+        <v>1.880639433860779</v>
       </c>
     </row>
   </sheetData>
